--- a/files/workbooks/values-calculator v2.xlsx
+++ b/files/workbooks/values-calculator v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Documents\GitHub\dynastyprocess\files\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB29938-D05A-4297-9D08-6FE113166475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6B6F3-8545-4E8B-8DA2-99897D5ECA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D6C2C6B7-E09D-4EBB-8275-628F97DE96A5}"/>
   </bookViews>
@@ -4485,20 +4485,20 @@
     <tableColumn id="5" xr3:uid="{798FFA28-16E2-43C3-9065-423A405960BF}" uniqueName="5" name="min_dynoECR" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{8E1A9FF6-4F05-4770-B948-865059E15488}" uniqueName="6" name="max_dyno2QBECR" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{FB949047-12CB-4339-AD24-1C239C9AC4D5}" uniqueName="7" name="min_dyno2QBECR" queryTableFieldId="7"/>
-    <tableColumn id="17" xr3:uid="{2DA4CBB4-B13C-4E04-B82C-3E7F058A4711}" uniqueName="17" name="max_model1QB" queryTableFieldId="16" dataDxfId="5">
+    <tableColumn id="17" xr3:uid="{2DA4CBB4-B13C-4E04-B82C-3E7F058A4711}" uniqueName="17" name="max_model1QB" queryTableFieldId="16" dataDxfId="11">
       <calculatedColumnFormula>ROUND($Q$2*raw_picks[[#This Row],[Index]]+$R$2,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6CF2B13A-FEBB-4410-883B-7448352AACD7}" uniqueName="18" name="min_model1QB" queryTableFieldId="17" dataDxfId="4">
+    <tableColumn id="18" xr3:uid="{6CF2B13A-FEBB-4410-883B-7448352AACD7}" uniqueName="18" name="min_model1QB" queryTableFieldId="17" dataDxfId="10">
       <calculatedColumnFormula>ROUND($Q$3*raw_picks[[#This Row],[Index]]^3+$R$3*raw_picks[[#This Row],[Index]]^2+$S$3*raw_picks[[#This Row],[Index]]+$T$3,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7DDCEFD3-52B9-43BF-B063-2C64C4FAAC00}" uniqueName="19" name="max_model2QB" queryTableFieldId="18" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{7DDCEFD3-52B9-43BF-B063-2C64C4FAAC00}" uniqueName="19" name="max_model2QB" queryTableFieldId="18" dataDxfId="9">
       <calculatedColumnFormula>ROUND($Q$4*raw_picks[[#This Row],[Index]]+$R$4,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{43F30BFF-07EF-4C39-87F8-1E7320C7226B}" uniqueName="20" name="min_model2QB" queryTableFieldId="19" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{43F30BFF-07EF-4C39-87F8-1E7320C7226B}" uniqueName="20" name="min_model2QB" queryTableFieldId="19" dataDxfId="8">
       <calculatedColumnFormula>ROUND($Q$5*raw_picks[[#This Row],[Index]]^3+$R$5*raw_picks[[#This Row],[Index]]^2+$S$5*raw_picks[[#This Row],[Index]]+$T$5,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{EABB33CD-964C-4CCF-B39F-7F91D8B0A694}" uniqueName="1" name="dynoECR" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{853E493E-7A90-4695-8452-5717889E0A87}" uniqueName="9" name="dyno2QBECR" queryTableFieldId="21" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EABB33CD-964C-4CCF-B39F-7F91D8B0A694}" uniqueName="1" name="dynoECR" queryTableFieldId="20" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{853E493E-7A90-4695-8452-5717889E0A87}" uniqueName="9" name="dyno2QBECR" queryTableFieldId="21" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4551,22 +4551,16 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A348B3B8-6334-427B-B11D-88926483ED67}" name="picks_only" displayName="picks_only" ref="A1:H69" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H69" xr:uid="{15DA3FC1-FCB4-4154-B978-01F3D00812AA}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="2019*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H69" xr:uid="{15DA3FC1-FCB4-4154-B978-01F3D00812AA}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{98F18A40-4238-4BC3-AA45-4D9FBE84DE1C}" uniqueName="9" name="mergename" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{9926C5F5-4218-4622-8188-013C7F05C61E}" uniqueName="2" name="pos" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{ED0F132F-FA00-4A93-8962-111471D6C298}" uniqueName="3" name="dynoECR" queryTableFieldId="3" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8E9E1D2E-B0B0-428A-B846-FAA3AF453081}" uniqueName="4" name="dyno2QBECR" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C2C65575-EC91-481D-97BA-7F4938547F5E}" uniqueName="5" name="max_dynoECR" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{0CA5A1A8-8F1C-4FFC-8C57-CD42054BFCFF}" uniqueName="6" name="min_dynoECR" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{C64B567D-085D-4FA3-BDB6-F4E533D584C7}" uniqueName="7" name="max_dyno2QBECR" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{5EEAED7C-B428-4947-ABA3-5F9B88F554C9}" uniqueName="8" name="min_dyno2QBECR" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{ED0F132F-FA00-4A93-8962-111471D6C298}" uniqueName="3" name="dynoECR" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8E9E1D2E-B0B0-428A-B846-FAA3AF453081}" uniqueName="4" name="dyno2QBECR" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C2C65575-EC91-481D-97BA-7F4938547F5E}" uniqueName="5" name="max_dynoECR" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0CA5A1A8-8F1C-4FFC-8C57-CD42054BFCFF}" uniqueName="6" name="min_dynoECR" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C64B567D-085D-4FA3-BDB6-F4E533D584C7}" uniqueName="7" name="max_dyno2QBECR" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{5EEAED7C-B428-4947-ABA3-5F9B88F554C9}" uniqueName="8" name="min_dyno2QBECR" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31756,7 +31750,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D8" sqref="A1:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31850,7 +31844,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>329</v>
       </c>
@@ -31980,7 +31974,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>330</v>
       </c>
@@ -32006,7 +32000,7 @@
         <v>98.16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>331</v>
       </c>
@@ -32084,7 +32078,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>332</v>
       </c>
@@ -32162,7 +32156,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>333</v>
       </c>
@@ -32292,7 +32286,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>334</v>
       </c>
@@ -32422,7 +32416,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -32448,7 +32442,7 @@
         <v>173.12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>336</v>
       </c>
@@ -32526,7 +32520,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -32604,7 +32598,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>338</v>
       </c>
@@ -32734,7 +32728,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>339</v>
       </c>
@@ -32864,7 +32858,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>341</v>
       </c>
@@ -32890,7 +32884,7 @@
         <v>250.39</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>340</v>
       </c>
@@ -32968,7 +32962,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>342</v>
       </c>
@@ -33046,7 +33040,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>343</v>
       </c>
@@ -33176,7 +33170,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>344</v>
       </c>
@@ -33306,7 +33300,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>346</v>
       </c>
@@ -33332,7 +33326,7 @@
         <v>276.26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>345</v>
       </c>
@@ -33410,7 +33404,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>347</v>
       </c>
@@ -33488,7 +33482,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>351</v>
       </c>
